--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,67 +25,67 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana140</t>
+    <t>isusana814</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena255</t>
+    <t>lelena052</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas150</t>
+    <t>jvargas701</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón002</t>
+    <t>fchacón008</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas205</t>
+    <t>avargas065</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas460</t>
+    <t>arojas261</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas869</t>
+    <t>cvargas600</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar078</t>
+    <t>halpízar881</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez250</t>
+    <t>rálvarez560</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho341</t>
+    <t>scamacho361</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez802</t>
+    <t>hvíquez232</t>
   </si>
   <si>
     <t>111190714</t>
@@ -97,253 +97,253 @@
     <t>208330983</t>
   </si>
   <si>
-    <t>augalde388</t>
+    <t>augalde238</t>
   </si>
   <si>
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés220</t>
+    <t>ccortés108</t>
   </si>
   <si>
     <t>111870703</t>
   </si>
   <si>
-    <t>lcastillo111</t>
+    <t>lcastillo703</t>
   </si>
   <si>
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz240</t>
+    <t>cdíaz000</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández190</t>
+    <t>yhernández691</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos107</t>
+    <t>vsantos001</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes801</t>
+    <t>gbarrantes048</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez009</t>
+    <t>dálvarez790</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura407</t>
+    <t>vsegura470</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo201</t>
+    <t>pcalvo466</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas825</t>
+    <t>yvargas925</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano003</t>
+    <t>gsolano330</t>
   </si>
   <si>
     <t>204600069</t>
   </si>
   <si>
-    <t>omarín209</t>
+    <t>omarín046</t>
   </si>
   <si>
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca014</t>
+    <t>yabarca074</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas910</t>
+    <t>mfallas401</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría034</t>
+    <t>schavarría205</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez486</t>
+    <t>asánchez814</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora402</t>
+    <t>mzamora072</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez301</t>
+    <t>abermúdez119</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández402</t>
+    <t>yhernández220</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas002</t>
+    <t>lsalas205</t>
   </si>
   <si>
     <t>401430930</t>
   </si>
   <si>
-    <t>harce910</t>
+    <t>harce930</t>
   </si>
   <si>
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello520</t>
+    <t>marguello603</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo700</t>
+    <t>serasmo477</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález722</t>
+    <t>agonzález753</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría561</t>
+    <t>jmaría295</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez161</t>
+    <t>cramírez416</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños774</t>
+    <t>kbolaños043</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado607</t>
+    <t>cprado368</t>
   </si>
   <si>
     <t>603650441</t>
   </si>
   <si>
-    <t>egarcía460</t>
+    <t>egarcía530</t>
   </si>
   <si>
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez101</t>
+    <t>fsánchez910</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas306</t>
+    <t>kvargas790</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde395</t>
+    <t>mvalverde002</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos727</t>
+    <t>kcampos270</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba270</t>
+    <t>ycórdoba850</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia061</t>
+    <t>cyesenia066</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría561</t>
+    <t>ymaría101</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura990</t>
+    <t>osegura890</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto463</t>
+    <t>rsoto610</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras600</t>
+    <t>jcontreras601</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña741</t>
+    <t>macuña498</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas617</t>
+    <t>isalas009</t>
   </si>
   <si>
     <t>204250440</t>
@@ -355,289 +355,289 @@
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla059</t>
+    <t>kbonilla009</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada002</t>
+    <t>gquesada050</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina900</t>
+    <t>mcatalina690</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez700</t>
+    <t>jrodríguez571</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz026</t>
+    <t>yruiz250</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas402</t>
+    <t>rsalas204</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero400</t>
+    <t>ecambronero534</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise311</t>
+    <t>mdenise508</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar020</t>
+    <t>jsalazar408</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena690</t>
+    <t>alorena091</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas070</t>
+    <t>frojas078</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas609</t>
+    <t>karguedas809</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas223</t>
+    <t>asalas537</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven335</t>
+    <t>bsteven500</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas045</t>
+    <t>jarguedas149</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza540</t>
+    <t>despinoza040</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós650</t>
+    <t>cquirós656</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo873</t>
+    <t>jarturo807</t>
   </si>
   <si>
     <t>900890952</t>
   </si>
   <si>
-    <t>irodríguez002</t>
+    <t>irodríguez809</t>
   </si>
   <si>
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález431</t>
+    <t>fgonzález170</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález568</t>
+    <t>mgonzález186</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo298</t>
+    <t>hoviedo502</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo036</t>
+    <t>ycastillo303</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda000</t>
+    <t>kmiranda402</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma992</t>
+    <t>apalma520</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas039</t>
+    <t>rrojas068</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa141</t>
+    <t>jazofeifa314</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas401</t>
+    <t>pvargas488</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz404</t>
+    <t>adíaz410</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa010</t>
+    <t>hgamboa402</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís870</t>
+    <t>csolís071</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo041</t>
+    <t>jmurillo415</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría150</t>
+    <t>amaría122</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada086</t>
+    <t>equesada060</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález256</t>
+    <t>ggonzález200</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel089</t>
+    <t>jmanuel803</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo030</t>
+    <t>rmurillo789</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan305</t>
+    <t>kbryan615</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes073</t>
+    <t>gbrenes353</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto230</t>
+    <t>gsoto002</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez608</t>
+    <t>wrodríguez080</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez217</t>
+    <t>mramírez179</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez296</t>
+    <t>erodríguez091</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo036</t>
+    <t>koviedo530</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega063</t>
+    <t>dvega233</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla301</t>
+    <t>abonilla306</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen900</t>
+    <t>kjaen810</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena190</t>
+    <t>mmagdalena549</t>
   </si>
 </sst>
 </file>

--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,73 +25,73 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana814</t>
+    <t>isusana040</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena052</t>
+    <t>lelena505</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas701</t>
+    <t>jvargas207</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón008</t>
+    <t>fchacón150</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas065</t>
+    <t>avargas700</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas261</t>
+    <t>arojas460</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas600</t>
+    <t>cvargas630</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar881</t>
+    <t>halpízar800</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez560</t>
+    <t>rálvarez570</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho361</t>
+    <t>scamacho010</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez232</t>
+    <t>hvíquez022</t>
   </si>
   <si>
     <t>111190714</t>
   </si>
   <si>
-    <t>ppérez710</t>
+    <t>ppérez711</t>
   </si>
   <si>
     <t>208330983</t>
@@ -103,541 +103,541 @@
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés108</t>
+    <t>ccortés010</t>
   </si>
   <si>
     <t>111870703</t>
   </si>
   <si>
-    <t>lcastillo703</t>
+    <t>lcastillo817</t>
   </si>
   <si>
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz000</t>
+    <t>cdíaz027</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández691</t>
+    <t>yhernández100</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos001</t>
+    <t>vsantos011</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes048</t>
+    <t>gbarrantes258</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez790</t>
+    <t>dálvarez000</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura470</t>
+    <t>vsegura022</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo466</t>
+    <t>pcalvo426</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas925</t>
+    <t>yvargas557</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano330</t>
+    <t>gsolano771</t>
   </si>
   <si>
     <t>204600069</t>
   </si>
   <si>
-    <t>omarín046</t>
+    <t>omarín000</t>
   </si>
   <si>
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca074</t>
+    <t>yabarca841</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas401</t>
+    <t>mfallas941</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría205</t>
+    <t>schavarría304</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez814</t>
+    <t>asánchez008</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora072</t>
+    <t>mzamora764</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez119</t>
+    <t>abermúdez019</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández220</t>
+    <t>yhernández804</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas205</t>
+    <t>lsalas990</t>
   </si>
   <si>
     <t>401430930</t>
   </si>
   <si>
-    <t>harce930</t>
+    <t>harce030</t>
   </si>
   <si>
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello603</t>
+    <t>marguello600</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo477</t>
+    <t>serasmo400</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález753</t>
+    <t>agonzález360</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría295</t>
+    <t>jmaría592</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez416</t>
+    <t>cramírez810</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños043</t>
+    <t>kbolaños047</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado368</t>
+    <t>cprado836</t>
   </si>
   <si>
     <t>603650441</t>
   </si>
   <si>
-    <t>egarcía530</t>
+    <t>egarcía006</t>
   </si>
   <si>
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez910</t>
+    <t>fsánchez710</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas790</t>
+    <t>kvargas070</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde002</t>
+    <t>mvalverde720</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos270</t>
+    <t>kcampos750</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba850</t>
+    <t>ycórdoba052</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia066</t>
+    <t>cyesenia640</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría101</t>
+    <t>ymaría015</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura890</t>
+    <t>osegura909</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto610</t>
+    <t>rsoto646</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras601</t>
+    <t>jcontreras609</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña498</t>
+    <t>macuña809</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas009</t>
+    <t>isalas728</t>
   </si>
   <si>
     <t>204250440</t>
   </si>
   <si>
-    <t>lbogantes045</t>
+    <t>lbogantes004</t>
   </si>
   <si>
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla009</t>
+    <t>kbonilla539</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada050</t>
+    <t>gquesada005</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina690</t>
+    <t>mcatalina369</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez571</t>
+    <t>jrodríguez312</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz250</t>
+    <t>yruiz500</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas204</t>
+    <t>rsalas029</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero534</t>
+    <t>ecambronero003</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise508</t>
+    <t>mdenise083</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar408</t>
+    <t>jsalazar428</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena091</t>
+    <t>alorena626</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas078</t>
+    <t>frojas501</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas809</t>
+    <t>karguedas060</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas537</t>
+    <t>asalas038</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven500</t>
+    <t>bsteven003</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas149</t>
+    <t>jarguedas547</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza040</t>
+    <t>despinoza098</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós656</t>
+    <t>cquirós060</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo807</t>
+    <t>jarturo873</t>
   </si>
   <si>
     <t>900890952</t>
   </si>
   <si>
-    <t>irodríguez809</t>
+    <t>irodríguez890</t>
   </si>
   <si>
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález170</t>
+    <t>fgonzález934</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález186</t>
+    <t>mgonzález701</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo502</t>
+    <t>hoviedo928</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo303</t>
+    <t>ycastillo663</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda402</t>
+    <t>kmiranda571</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma520</t>
+    <t>apalma059</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas068</t>
+    <t>rrojas053</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa314</t>
+    <t>jazofeifa040</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas488</t>
+    <t>pvargas870</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz410</t>
+    <t>adíaz042</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa402</t>
+    <t>hgamboa564</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís071</t>
+    <t>csolís870</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo415</t>
+    <t>jmurillo610</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría122</t>
+    <t>amaría290</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada060</t>
+    <t>equesada230</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález200</t>
+    <t>ggonzález729</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel803</t>
+    <t>jmanuel093</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo789</t>
+    <t>rmurillo004</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan615</t>
+    <t>kbryan841</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes353</t>
+    <t>gbrenes035</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto002</t>
+    <t>gsoto391</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez080</t>
+    <t>wrodríguez000</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez179</t>
+    <t>mramírez170</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez091</t>
+    <t>erodríguez200</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo530</t>
+    <t>koviedo560</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega233</t>
+    <t>dvega463</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla306</t>
+    <t>abonilla661</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen810</t>
+    <t>kjaen949</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena549</t>
+    <t>mmagdalena315</t>
   </si>
 </sst>
 </file>

--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,145 +25,145 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana040</t>
+    <t>isusana082</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena505</t>
+    <t>lelena200</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas207</t>
+    <t>jvargas021</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón150</t>
+    <t>fchacón802</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas700</t>
+    <t>avargas265</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas460</t>
+    <t>arojas667</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas630</t>
+    <t>cvargas106</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar800</t>
+    <t>halpízar818</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez570</t>
+    <t>rálvarez665</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho010</t>
+    <t>scamacho100</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez022</t>
+    <t>hvíquez321</t>
   </si>
   <si>
     <t>111190714</t>
   </si>
   <si>
-    <t>ppérez711</t>
+    <t>ppérez401</t>
   </si>
   <si>
     <t>208330983</t>
   </si>
   <si>
-    <t>augalde238</t>
+    <t>augalde089</t>
   </si>
   <si>
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés010</t>
+    <t>ccortés024</t>
   </si>
   <si>
     <t>111870703</t>
   </si>
   <si>
-    <t>lcastillo817</t>
+    <t>lcastillo118</t>
   </si>
   <si>
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz027</t>
+    <t>cdíaz947</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández100</t>
+    <t>yhernández191</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos011</t>
+    <t>vsantos102</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes258</t>
+    <t>gbarrantes505</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez000</t>
+    <t>dálvarez679</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura022</t>
+    <t>vsegura424</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo426</t>
+    <t>pcalvo066</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas557</t>
+    <t>yvargas585</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano771</t>
+    <t>gsolano407</t>
   </si>
   <si>
     <t>204600069</t>
@@ -175,469 +175,469 @@
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca841</t>
+    <t>yabarca110</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas941</t>
+    <t>mfallas515</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría304</t>
+    <t>schavarría253</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez008</t>
+    <t>asánchez060</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora764</t>
+    <t>mzamora224</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez019</t>
+    <t>abermúdez220</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández804</t>
+    <t>yhernández187</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas990</t>
+    <t>lsalas332</t>
   </si>
   <si>
     <t>401430930</t>
   </si>
   <si>
-    <t>harce030</t>
+    <t>harce903</t>
   </si>
   <si>
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello600</t>
+    <t>marguello635</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo400</t>
+    <t>serasmo247</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález360</t>
+    <t>agonzález532</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría592</t>
+    <t>jmaría690</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez810</t>
+    <t>cramírez181</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños047</t>
+    <t>kbolaños073</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado836</t>
+    <t>cprado028</t>
   </si>
   <si>
     <t>603650441</t>
   </si>
   <si>
-    <t>egarcía006</t>
+    <t>egarcía463</t>
   </si>
   <si>
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez710</t>
+    <t>fsánchez092</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas070</t>
+    <t>kvargas012</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde720</t>
+    <t>mvalverde802</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos750</t>
+    <t>kcampos770</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba052</t>
+    <t>ycórdoba058</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia640</t>
+    <t>cyesenia062</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría015</t>
+    <t>ymaría105</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura909</t>
+    <t>osegura970</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto646</t>
+    <t>rsoto043</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras609</t>
+    <t>jcontreras008</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña809</t>
+    <t>macuña030</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas728</t>
+    <t>isalas107</t>
   </si>
   <si>
     <t>204250440</t>
   </si>
   <si>
-    <t>lbogantes004</t>
+    <t>lbogantes042</t>
   </si>
   <si>
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla539</t>
+    <t>kbonilla706</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada005</t>
+    <t>gquesada720</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina369</t>
+    <t>mcatalina003</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez312</t>
+    <t>jrodríguez156</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz500</t>
+    <t>yruiz302</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas029</t>
+    <t>rsalas922</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero003</t>
+    <t>ecambronero401</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise083</t>
+    <t>mdenise805</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar428</t>
+    <t>jsalazar740</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena626</t>
+    <t>alorena194</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas501</t>
+    <t>frojas805</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas060</t>
+    <t>karguedas260</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas038</t>
+    <t>asalas785</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven003</t>
+    <t>bsteven306</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas547</t>
+    <t>jarguedas510</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza098</t>
+    <t>despinoza000</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós060</t>
+    <t>cquirós002</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo873</t>
+    <t>jarturo007</t>
   </si>
   <si>
     <t>900890952</t>
   </si>
   <si>
-    <t>irodríguez890</t>
+    <t>irodríguez090</t>
   </si>
   <si>
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález934</t>
+    <t>fgonzález105</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález701</t>
+    <t>mgonzález014</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo928</t>
+    <t>hoviedo069</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo663</t>
+    <t>ycastillo032</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda571</t>
+    <t>kmiranda250</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma059</t>
+    <t>apalma255</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas053</t>
+    <t>rrojas608</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa040</t>
+    <t>jazofeifa431</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas870</t>
+    <t>pvargas778</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz042</t>
+    <t>adíaz203</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa564</t>
+    <t>hgamboa146</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís870</t>
+    <t>csolís810</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo610</t>
+    <t>jmurillo401</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría290</t>
+    <t>amaría128</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada230</t>
+    <t>equesada866</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález729</t>
+    <t>ggonzález600</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel093</t>
+    <t>jmanuel809</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo004</t>
+    <t>rmurillo109</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan841</t>
+    <t>kbryan400</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes035</t>
+    <t>gbrenes373</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto391</t>
+    <t>gsoto310</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez000</t>
+    <t>wrodríguez826</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez170</t>
+    <t>mramírez709</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez200</t>
+    <t>erodríguez929</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo560</t>
+    <t>koviedo063</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega463</t>
+    <t>dvega643</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla661</t>
+    <t>abonilla640</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen949</t>
+    <t>kjaen899</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena315</t>
+    <t>mmagdalena275</t>
   </si>
 </sst>
 </file>

--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,85 +25,85 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana082</t>
+    <t>isusana234</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena200</t>
+    <t>lelena552</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas021</t>
+    <t>jvargas272</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón802</t>
+    <t>fchacón820</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas265</t>
+    <t>avargas956</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas667</t>
+    <t>arojas750</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas106</t>
+    <t>cvargas081</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar818</t>
+    <t>halpízar781</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez665</t>
+    <t>rálvarez702</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho100</t>
+    <t>scamacho634</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez321</t>
+    <t>hvíquez018</t>
   </si>
   <si>
     <t>111190714</t>
   </si>
   <si>
-    <t>ppérez401</t>
+    <t>ppérez101</t>
   </si>
   <si>
     <t>208330983</t>
   </si>
   <si>
-    <t>augalde089</t>
+    <t>augalde383</t>
   </si>
   <si>
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés024</t>
+    <t>ccortés401</t>
   </si>
   <si>
     <t>111870703</t>
@@ -115,529 +115,529 @@
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz947</t>
+    <t>cdíaz722</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández191</t>
+    <t>yhernández816</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos102</t>
+    <t>vsantos712</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes505</t>
+    <t>gbarrantes588</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez679</t>
+    <t>dálvarez990</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura424</t>
+    <t>vsegura079</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo066</t>
+    <t>pcalvo016</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas585</t>
+    <t>yvargas708</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano407</t>
+    <t>gsolano347</t>
   </si>
   <si>
     <t>204600069</t>
   </si>
   <si>
-    <t>omarín000</t>
+    <t>omarín260</t>
   </si>
   <si>
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca110</t>
+    <t>yabarca780</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas515</t>
+    <t>mfallas249</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría253</t>
+    <t>schavarría230</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez060</t>
+    <t>asánchez600</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora224</t>
+    <t>mzamora070</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez220</t>
+    <t>abermúdez292</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández187</t>
+    <t>yhernández471</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas332</t>
+    <t>lsalas925</t>
   </si>
   <si>
     <t>401430930</t>
   </si>
   <si>
-    <t>harce903</t>
+    <t>harce300</t>
   </si>
   <si>
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello635</t>
+    <t>marguello605</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo247</t>
+    <t>serasmo224</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález532</t>
+    <t>agonzález730</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría690</t>
+    <t>jmaría906</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez181</t>
+    <t>cramírez180</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños073</t>
+    <t>kbolaños747</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado028</t>
+    <t>cprado063</t>
   </si>
   <si>
     <t>603650441</t>
   </si>
   <si>
-    <t>egarcía463</t>
+    <t>egarcía401</t>
   </si>
   <si>
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez092</t>
+    <t>fsánchez719</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas012</t>
+    <t>kvargas836</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde802</t>
+    <t>mvalverde290</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos770</t>
+    <t>kcampos707</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba058</t>
+    <t>ycórdoba827</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia062</t>
+    <t>cyesenia220</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría105</t>
+    <t>ymaría406</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura970</t>
+    <t>osegura090</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto043</t>
+    <t>rsoto314</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras008</t>
+    <t>jcontreras600</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña030</t>
+    <t>macuña000</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas107</t>
+    <t>isalas182</t>
   </si>
   <si>
     <t>204250440</t>
   </si>
   <si>
-    <t>lbogantes042</t>
+    <t>lbogantes402</t>
   </si>
   <si>
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla706</t>
+    <t>kbonilla792</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada720</t>
+    <t>gquesada020</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina003</t>
+    <t>mcatalina603</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez156</t>
+    <t>jrodríguez650</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz302</t>
+    <t>yruiz605</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas922</t>
+    <t>rsalas092</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero401</t>
+    <t>ecambronero450</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise805</t>
+    <t>mdenise607</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar740</t>
+    <t>jsalazar270</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena194</t>
+    <t>alorena259</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas805</t>
+    <t>frojas815</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas260</t>
+    <t>karguedas090</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas785</t>
+    <t>asalas850</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven306</t>
+    <t>bsteven630</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas510</t>
+    <t>jarguedas740</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza000</t>
+    <t>despinoza094</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós002</t>
+    <t>cquirós020</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo007</t>
+    <t>jarturo107</t>
   </si>
   <si>
     <t>900890952</t>
   </si>
   <si>
-    <t>irodríguez090</t>
+    <t>irodríguez599</t>
   </si>
   <si>
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález105</t>
+    <t>fgonzález419</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález014</t>
+    <t>mgonzález706</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo069</t>
+    <t>hoviedo382</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo032</t>
+    <t>ycastillo260</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda250</t>
+    <t>kmiranda211</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma255</t>
+    <t>apalma299</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas608</t>
+    <t>rrojas639</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa431</t>
+    <t>jazofeifa374</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas778</t>
+    <t>pvargas481</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz203</t>
+    <t>adíaz040</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa146</t>
+    <t>hgamboa225</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís810</t>
+    <t>csolís087</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo401</t>
+    <t>jmurillo634</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría128</t>
+    <t>amaría852</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada866</t>
+    <t>equesada408</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález600</t>
+    <t>ggonzález052</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel809</t>
+    <t>jmanuel096</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo109</t>
+    <t>rmurillo084</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan400</t>
+    <t>kbryan130</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes373</t>
+    <t>gbrenes051</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto310</t>
+    <t>gsoto203</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez826</t>
+    <t>wrodríguez004</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez709</t>
+    <t>mramírez610</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez929</t>
+    <t>erodríguez290</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo063</t>
+    <t>koviedo523</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega643</t>
+    <t>dvega604</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla640</t>
+    <t>abonilla663</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen899</t>
+    <t>kjaen019</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena275</t>
+    <t>mmagdalena732</t>
   </si>
 </sst>
 </file>

--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,199 +25,199 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana234</t>
+    <t>isusana310</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena552</t>
+    <t>lelena425</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas272</t>
+    <t>jvargas255</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón820</t>
+    <t>fchacón015</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas956</t>
+    <t>avargas964</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas750</t>
+    <t>arojas247</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas081</t>
+    <t>cvargas101</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar781</t>
+    <t>halpízar008</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez702</t>
+    <t>rálvarez600</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho634</t>
+    <t>scamacho133</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez018</t>
+    <t>hvíquez038</t>
   </si>
   <si>
     <t>111190714</t>
   </si>
   <si>
-    <t>ppérez101</t>
+    <t>ppérez401</t>
   </si>
   <si>
     <t>208330983</t>
   </si>
   <si>
-    <t>augalde383</t>
+    <t>augalde388</t>
   </si>
   <si>
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés401</t>
+    <t>ccortés104</t>
   </si>
   <si>
     <t>111870703</t>
   </si>
   <si>
-    <t>lcastillo118</t>
+    <t>lcastillo710</t>
   </si>
   <si>
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz722</t>
+    <t>cdíaz924</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández816</t>
+    <t>yhernández106</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos712</t>
+    <t>vsantos107</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes588</t>
+    <t>gbarrantes020</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez990</t>
+    <t>dálvarez670</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura079</t>
+    <t>vsegura440</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo016</t>
+    <t>pcalvo006</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas708</t>
+    <t>yvargas722</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano347</t>
+    <t>gsolano714</t>
   </si>
   <si>
     <t>204600069</t>
   </si>
   <si>
-    <t>omarín260</t>
+    <t>omarín609</t>
   </si>
   <si>
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca780</t>
+    <t>yabarca011</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas249</t>
+    <t>mfallas590</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría230</t>
+    <t>schavarría225</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez600</t>
+    <t>asánchez056</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora070</t>
+    <t>mzamora266</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez292</t>
+    <t>abermúdez915</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández471</t>
+    <t>yhernández170</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas925</t>
+    <t>lsalas903</t>
   </si>
   <si>
     <t>401430930</t>
@@ -229,415 +229,415 @@
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello605</t>
+    <t>marguello052</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo224</t>
+    <t>serasmo402</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález730</t>
+    <t>agonzález026</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría906</t>
+    <t>jmaría007</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez180</t>
+    <t>cramírez086</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños747</t>
+    <t>kbolaños443</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado063</t>
+    <t>cprado630</t>
   </si>
   <si>
     <t>603650441</t>
   </si>
   <si>
-    <t>egarcía401</t>
+    <t>egarcía613</t>
   </si>
   <si>
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez719</t>
+    <t>fsánchez244</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas836</t>
+    <t>kvargas072</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde290</t>
+    <t>mvalverde529</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos707</t>
+    <t>kcampos772</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba827</t>
+    <t>ycórdoba578</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia220</t>
+    <t>cyesenia274</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría406</t>
+    <t>ymaría451</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura090</t>
+    <t>osegura679</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto314</t>
+    <t>rsoto636</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras600</t>
+    <t>jcontreras918</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña000</t>
+    <t>macuña410</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas182</t>
+    <t>isalas201</t>
   </si>
   <si>
     <t>204250440</t>
   </si>
   <si>
-    <t>lbogantes402</t>
+    <t>lbogantes044</t>
   </si>
   <si>
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla792</t>
+    <t>kbonilla729</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada020</t>
+    <t>gquesada750</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina603</t>
+    <t>mcatalina009</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez650</t>
+    <t>jrodríguez160</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz605</t>
+    <t>yruiz600</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas092</t>
+    <t>rsalas229</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero450</t>
+    <t>ecambronero514</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise607</t>
+    <t>mdenise031</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar270</t>
+    <t>jsalazar422</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena259</t>
+    <t>alorena910</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas815</t>
+    <t>frojas817</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas090</t>
+    <t>karguedas924</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas850</t>
+    <t>asalas385</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven630</t>
+    <t>bsteven305</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas740</t>
+    <t>jarguedas090</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza094</t>
+    <t>despinoza080</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós020</t>
+    <t>cquirós655</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo107</t>
+    <t>jarturo001</t>
   </si>
   <si>
     <t>900890952</t>
   </si>
   <si>
-    <t>irodríguez599</t>
+    <t>irodríguez020</t>
   </si>
   <si>
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález419</t>
+    <t>fgonzález497</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález706</t>
+    <t>mgonzález725</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo382</t>
+    <t>hoviedo062</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo260</t>
+    <t>ycastillo003</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda211</t>
+    <t>kmiranda500</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma299</t>
+    <t>apalma025</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas639</t>
+    <t>rrojas659</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa374</t>
+    <t>jazofeifa171</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas481</t>
+    <t>pvargas078</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz040</t>
+    <t>adíaz104</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa225</t>
+    <t>hgamboa060</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís087</t>
+    <t>csolís958</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo634</t>
+    <t>jmurillo063</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría852</t>
+    <t>amaría803</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada408</t>
+    <t>equesada863</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález052</t>
+    <t>ggonzález053</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel096</t>
+    <t>jmanuel380</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo084</t>
+    <t>rmurillo719</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan130</t>
+    <t>kbryan863</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes051</t>
+    <t>gbrenes753</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto203</t>
+    <t>gsoto231</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez004</t>
+    <t>wrodríguez558</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez610</t>
+    <t>mramírez702</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez290</t>
+    <t>erodríguez920</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo523</t>
+    <t>koviedo530</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega604</t>
+    <t>dvega330</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla663</t>
+    <t>abonilla146</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen019</t>
+    <t>kjaen904</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena732</t>
+    <t>mmagdalena203</t>
   </si>
 </sst>
 </file>

--- a/backend/aqui.xlsx
+++ b/backend/aqui.xlsx
@@ -25,247 +25,247 @@
     <t>108480432</t>
   </si>
   <si>
-    <t>isusana310</t>
+    <t>isusana481</t>
   </si>
   <si>
     <t>204500522</t>
   </si>
   <si>
-    <t>lelena425</t>
+    <t>lelena520</t>
   </si>
   <si>
     <t>205720051</t>
   </si>
   <si>
-    <t>jvargas255</t>
+    <t>jvargas250</t>
   </si>
   <si>
     <t>702180508</t>
   </si>
   <si>
-    <t>fchacón015</t>
+    <t>fchacón520</t>
   </si>
   <si>
     <t>205690746</t>
   </si>
   <si>
-    <t>avargas964</t>
+    <t>avargas546</t>
   </si>
   <si>
     <t>602160475</t>
   </si>
   <si>
-    <t>arojas247</t>
+    <t>arojas606</t>
   </si>
   <si>
     <t>109810603</t>
   </si>
   <si>
-    <t>cvargas101</t>
+    <t>cvargas910</t>
   </si>
   <si>
     <t>108780841</t>
   </si>
   <si>
-    <t>halpízar008</t>
+    <t>halpízar088</t>
   </si>
   <si>
     <t>602520067</t>
   </si>
   <si>
-    <t>rálvarez600</t>
+    <t>rálvarez670</t>
   </si>
   <si>
     <t>503360141</t>
   </si>
   <si>
-    <t>scamacho133</t>
+    <t>scamacho014</t>
   </si>
   <si>
     <t>203820981</t>
   </si>
   <si>
-    <t>hvíquez038</t>
+    <t>hvíquez221</t>
   </si>
   <si>
     <t>111190714</t>
   </si>
   <si>
-    <t>ppérez401</t>
+    <t>ppérez191</t>
   </si>
   <si>
     <t>208330983</t>
   </si>
   <si>
-    <t>augalde388</t>
+    <t>augalde080</t>
   </si>
   <si>
     <t>401240280</t>
   </si>
   <si>
-    <t>ccortés104</t>
+    <t>ccortés020</t>
   </si>
   <si>
     <t>111870703</t>
   </si>
   <si>
-    <t>lcastillo710</t>
+    <t>lcastillo300</t>
   </si>
   <si>
     <t>205240079</t>
   </si>
   <si>
-    <t>cdíaz924</t>
+    <t>cdíaz294</t>
   </si>
   <si>
     <t>109080164</t>
   </si>
   <si>
-    <t>yhernández106</t>
+    <t>yhernández601</t>
   </si>
   <si>
     <t>110410270</t>
   </si>
   <si>
-    <t>vsantos107</t>
+    <t>vsantos171</t>
   </si>
   <si>
     <t>401580258</t>
   </si>
   <si>
-    <t>gbarrantes020</t>
+    <t>gbarrantes885</t>
   </si>
   <si>
     <t>900990677</t>
   </si>
   <si>
-    <t>dálvarez670</t>
+    <t>dálvarez007</t>
   </si>
   <si>
     <t>204290474</t>
   </si>
   <si>
-    <t>vsegura440</t>
+    <t>vsegura020</t>
   </si>
   <si>
     <t>204160866</t>
   </si>
   <si>
-    <t>pcalvo006</t>
+    <t>pcalvo201</t>
   </si>
   <si>
     <t>205280759</t>
   </si>
   <si>
-    <t>yvargas722</t>
+    <t>yvargas925</t>
   </si>
   <si>
     <t>304770133</t>
   </si>
   <si>
-    <t>gsolano714</t>
+    <t>gsolano301</t>
   </si>
   <si>
     <t>204600069</t>
   </si>
   <si>
-    <t>omarín609</t>
+    <t>omarín460</t>
   </si>
   <si>
     <t>108170474</t>
   </si>
   <si>
-    <t>yabarca011</t>
+    <t>yabarca440</t>
   </si>
   <si>
     <t>205150149</t>
   </si>
   <si>
-    <t>mfallas590</t>
+    <t>mfallas490</t>
   </si>
   <si>
     <t>205310432</t>
   </si>
   <si>
-    <t>schavarría225</t>
+    <t>schavarría522</t>
   </si>
   <si>
     <t>801050664</t>
   </si>
   <si>
-    <t>asánchez056</t>
+    <t>asánchez641</t>
   </si>
   <si>
     <t>204660722</t>
   </si>
   <si>
-    <t>mzamora266</t>
+    <t>mzamora622</t>
   </si>
   <si>
     <t>112390952</t>
   </si>
   <si>
-    <t>abermúdez915</t>
+    <t>abermúdez019</t>
   </si>
   <si>
     <t>801220474</t>
   </si>
   <si>
-    <t>yhernández170</t>
+    <t>yhernández100</t>
   </si>
   <si>
     <t>205230399</t>
   </si>
   <si>
-    <t>lsalas903</t>
+    <t>lsalas339</t>
   </si>
   <si>
     <t>401430930</t>
   </si>
   <si>
-    <t>harce300</t>
+    <t>harce041</t>
   </si>
   <si>
     <t>206350665</t>
   </si>
   <si>
-    <t>marguello052</t>
+    <t>marguello265</t>
   </si>
   <si>
     <t>402170723</t>
   </si>
   <si>
-    <t>serasmo402</t>
+    <t>serasmo074</t>
   </si>
   <si>
     <t>206020735</t>
   </si>
   <si>
-    <t>agonzález026</t>
+    <t>agonzález230</t>
   </si>
   <si>
     <t>402160579</t>
   </si>
   <si>
-    <t>jmaría007</t>
+    <t>jmaría795</t>
   </si>
   <si>
     <t>110640818</t>
   </si>
   <si>
-    <t>cramírez086</t>
+    <t>cramírez181</t>
   </si>
   <si>
     <t>401770734</t>
   </si>
   <si>
-    <t>kbolaños443</t>
+    <t>kbolaños340</t>
   </si>
   <si>
     <t>207380463</t>
   </si>
   <si>
-    <t>cprado630</t>
+    <t>cprado320</t>
   </si>
   <si>
     <t>603650441</t>
@@ -277,73 +277,73 @@
     <t>401290471</t>
   </si>
   <si>
-    <t>fsánchez244</t>
+    <t>fsánchez400</t>
   </si>
   <si>
     <t>701960328</t>
   </si>
   <si>
-    <t>kvargas072</t>
+    <t>kvargas870</t>
   </si>
   <si>
     <t>207930528</t>
   </si>
   <si>
-    <t>mvalverde529</t>
+    <t>mvalverde872</t>
   </si>
   <si>
     <t>205270757</t>
   </si>
   <si>
-    <t>kcampos772</t>
+    <t>kcampos777</t>
   </si>
   <si>
     <t>205870017</t>
   </si>
   <si>
-    <t>ycórdoba578</t>
+    <t>ycórdoba257</t>
   </si>
   <si>
     <t>206260174</t>
   </si>
   <si>
-    <t>cyesenia274</t>
+    <t>cyesenia127</t>
   </si>
   <si>
     <t>110680456</t>
   </si>
   <si>
-    <t>ymaría451</t>
+    <t>ymaría614</t>
   </si>
   <si>
     <t>900960978</t>
   </si>
   <si>
-    <t>osegura679</t>
+    <t>osegura608</t>
   </si>
   <si>
     <t>603460661</t>
   </si>
   <si>
-    <t>rsoto636</t>
+    <t>rsoto066</t>
   </si>
   <si>
     <t>109660008</t>
   </si>
   <si>
-    <t>jcontreras918</t>
+    <t>jcontreras061</t>
   </si>
   <si>
     <t>108740930</t>
   </si>
   <si>
-    <t>macuña410</t>
+    <t>macuña000</t>
   </si>
   <si>
     <t>109620871</t>
   </si>
   <si>
-    <t>isalas201</t>
+    <t>isalas691</t>
   </si>
   <si>
     <t>204250440</t>
@@ -355,109 +355,109 @@
     <t>207580963</t>
   </si>
   <si>
-    <t>kbonilla729</t>
+    <t>kbonilla032</t>
   </si>
   <si>
     <t>205750300</t>
   </si>
   <si>
-    <t>gquesada750</t>
+    <t>gquesada753</t>
   </si>
   <si>
     <t>303960350</t>
   </si>
   <si>
-    <t>mcatalina009</t>
+    <t>mcatalina033</t>
   </si>
   <si>
     <t>207160153</t>
   </si>
   <si>
-    <t>jrodríguez160</t>
+    <t>jrodríguez162</t>
   </si>
   <si>
     <t>205360852</t>
   </si>
   <si>
-    <t>yruiz600</t>
+    <t>yruiz538</t>
   </si>
   <si>
     <t>204420924</t>
   </si>
   <si>
-    <t>rsalas229</t>
+    <t>rsalas240</t>
   </si>
   <si>
     <t>401750304</t>
   </si>
   <si>
-    <t>ecambronero514</t>
+    <t>ecambronero404</t>
   </si>
   <si>
     <t>113580076</t>
   </si>
   <si>
-    <t>mdenise031</t>
+    <t>mdenise675</t>
   </si>
   <si>
     <t>207280242</t>
   </si>
   <si>
-    <t>jsalazar422</t>
+    <t>jsalazar227</t>
   </si>
   <si>
     <t>105290664</t>
   </si>
   <si>
-    <t>alorena910</t>
+    <t>alorena066</t>
   </si>
   <si>
     <t>110580578</t>
   </si>
   <si>
-    <t>frojas817</t>
+    <t>frojas871</t>
   </si>
   <si>
     <t>206040198</t>
   </si>
   <si>
-    <t>karguedas924</t>
+    <t>karguedas689</t>
   </si>
   <si>
     <t>205780352</t>
   </si>
   <si>
-    <t>asalas385</t>
+    <t>asalas328</t>
   </si>
   <si>
     <t>603730502</t>
   </si>
   <si>
-    <t>bsteven305</t>
+    <t>bsteven562</t>
   </si>
   <si>
     <t>401750549</t>
   </si>
   <si>
-    <t>jarguedas090</t>
+    <t>jarguedas047</t>
   </si>
   <si>
     <t>800950490</t>
   </si>
   <si>
-    <t>despinoza080</t>
+    <t>despinoza095</t>
   </si>
   <si>
     <t>206600255</t>
   </si>
   <si>
-    <t>cquirós655</t>
+    <t>cquirós062</t>
   </si>
   <si>
     <t>107030870</t>
   </si>
   <si>
-    <t>jarturo001</t>
+    <t>jarturo773</t>
   </si>
   <si>
     <t>900890952</t>
@@ -469,175 +469,175 @@
     <t>114730519</t>
   </si>
   <si>
-    <t>fgonzález497</t>
+    <t>fgonzález715</t>
   </si>
   <si>
     <t>120850674</t>
   </si>
   <si>
-    <t>mgonzález725</t>
+    <t>mgonzález080</t>
   </si>
   <si>
     <t>205630892</t>
   </si>
   <si>
-    <t>hoviedo062</t>
+    <t>hoviedo895</t>
   </si>
   <si>
     <t>206330160</t>
   </si>
   <si>
-    <t>ycastillo003</t>
+    <t>ycastillo200</t>
   </si>
   <si>
     <t>504120071</t>
   </si>
   <si>
-    <t>kmiranda500</t>
+    <t>kmiranda410</t>
   </si>
   <si>
     <t>205950092</t>
   </si>
   <si>
-    <t>apalma025</t>
+    <t>apalma929</t>
   </si>
   <si>
     <t>303870965</t>
   </si>
   <si>
-    <t>rrojas659</t>
+    <t>rrojas576</t>
   </si>
   <si>
     <t>114140037</t>
   </si>
   <si>
-    <t>jazofeifa171</t>
+    <t>jazofeifa047</t>
   </si>
   <si>
     <t>401780847</t>
   </si>
   <si>
-    <t>pvargas078</t>
+    <t>pvargas778</t>
   </si>
   <si>
     <t>402040013</t>
   </si>
   <si>
-    <t>adíaz104</t>
+    <t>adíaz004</t>
   </si>
   <si>
     <t>205620142</t>
   </si>
   <si>
-    <t>hgamboa060</t>
+    <t>hgamboa201</t>
   </si>
   <si>
     <t>108890750</t>
   </si>
   <si>
-    <t>csolís958</t>
+    <t>csolís107</t>
   </si>
   <si>
     <t>206300145</t>
   </si>
   <si>
-    <t>jmurillo063</t>
+    <t>jmurillo305</t>
   </si>
   <si>
     <t>205910238</t>
   </si>
   <si>
-    <t>amaría803</t>
+    <t>amaría005</t>
   </si>
   <si>
     <t>603240688</t>
   </si>
   <si>
-    <t>equesada863</t>
+    <t>equesada868</t>
   </si>
   <si>
     <t>206750932</t>
   </si>
   <si>
-    <t>ggonzález053</t>
+    <t>ggonzález302</t>
   </si>
   <si>
     <t>603390980</t>
   </si>
   <si>
-    <t>jmanuel380</t>
+    <t>jmanuel893</t>
   </si>
   <si>
     <t>107400398</t>
   </si>
   <si>
-    <t>rmurillo719</t>
+    <t>rmurillo470</t>
   </si>
   <si>
     <t>108460513</t>
   </si>
   <si>
-    <t>kbryan863</t>
+    <t>kbryan084</t>
   </si>
   <si>
     <t>701830335</t>
   </si>
   <si>
-    <t>gbrenes753</t>
+    <t>gbrenes573</t>
   </si>
   <si>
     <t>110230935</t>
   </si>
   <si>
-    <t>gsoto231</t>
+    <t>gsoto125</t>
   </si>
   <si>
     <t>205540608</t>
   </si>
   <si>
-    <t>wrodríguez558</t>
+    <t>wrodríguez500</t>
   </si>
   <si>
     <t>701020697</t>
   </si>
   <si>
-    <t>mramírez702</t>
+    <t>mramírez170</t>
   </si>
   <si>
     <t>206490219</t>
   </si>
   <si>
-    <t>erodríguez920</t>
+    <t>erodríguez904</t>
   </si>
   <si>
     <t>603530302</t>
   </si>
   <si>
-    <t>koviedo530</t>
+    <t>koviedo306</t>
   </si>
   <si>
     <t>603440323</t>
   </si>
   <si>
-    <t>dvega330</t>
+    <t>dvega363</t>
   </si>
   <si>
     <t>401860636</t>
   </si>
   <si>
-    <t>abonilla146</t>
+    <t>abonilla166</t>
   </si>
   <si>
     <t>401990918</t>
   </si>
   <si>
-    <t>kjaen904</t>
+    <t>kjaen199</t>
   </si>
   <si>
     <t>401730295</t>
   </si>
   <si>
-    <t>mmagdalena203</t>
+    <t>mmagdalena905</t>
   </si>
 </sst>
 </file>
